--- a/BU SQL/AnyDesk.xlsx
+++ b/BU SQL/AnyDesk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\BU SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Only-My\BU SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA18292-C060-4C8E-9DCA-A973749E5916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69F6B12-35E1-4139-91E0-0BF59B3602BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1172,13 +1161,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FAA99F8-AFD0-49B4-BE22-D60C1DFD4092}" name="Table1" displayName="Table1" ref="A1:L100" totalsRowCount="1" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:L99" xr:uid="{9FAA99F8-AFD0-49B4-BE22-D60C1DFD4092}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Khulna"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L99" xr:uid="{9FAA99F8-AFD0-49B4-BE22-D60C1DFD4092}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{285F6119-11D7-4AE5-BA9A-5FEA1CFF9F1F}" name="Hospital Name" totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="22"/>
     <tableColumn id="2" xr3:uid="{613FE34B-79A5-4F7E-9887-B780C3777605}" name="Area" dataDxfId="21" totalsRowDxfId="20"/>
@@ -1523,7 +1506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1566,7 +1549,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1598,7 +1581,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1636,7 +1619,7 @@
       </c>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1659,7 +1642,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
@@ -1681,7 +1664,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1695,7 +1678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>38</v>
       </c>
@@ -1719,7 +1702,7 @@
       </c>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1736,7 +1719,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -1767,7 +1750,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -1781,7 +1764,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -1795,7 +1778,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -1809,7 +1792,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
@@ -1820,7 +1803,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
@@ -1837,7 +1820,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -1871,7 +1854,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>76</v>
       </c>
@@ -1888,7 +1871,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
@@ -1902,7 +1885,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
@@ -1916,7 +1899,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
@@ -1947,7 +1930,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>95</v>
       </c>
@@ -1972,7 +1955,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>99</v>
       </c>
@@ -1983,77 +1966,6 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="33" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="34" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="35" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="36" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="37" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="38" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="39" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="40" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="41" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="42" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="43" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="44" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="45" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="46" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="47" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="48" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="49" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="51" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="52" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="53" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="54" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="55" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="56" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="57" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="58" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="59" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="60" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="61" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="62" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="63" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="64" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="19" t="s">
         <v>101</v>
@@ -2070,7 +1982,7 @@
       <c r="K100" s="21"/>
       <c r="L100" s="19">
         <f>SUBTOTAL(103,Table1[Ramarks])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
